--- a/documentation/databasestructure.xlsx
+++ b/documentation/databasestructure.xlsx
@@ -344,7 +344,7 @@
     <t>classroom_enrolment</t>
   </si>
   <si>
-    <t>comes from external system</t>
+    <t>to enrol someone, an enrolment request need to have been done. It is the enrolment request that contain the course relationship information.</t>
   </si>
   <si>
     <t>updateenrollment</t>
